--- a/Software_Requests.xlsx
+++ b/Software_Requests.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9255" windowWidth="20475" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12645" windowWidth="23040" xWindow="7680" yWindow="1425"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>Name</t>
   </si>
@@ -22,22 +22,19 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Asset</t>
-  </si>
-  <si>
-    <t>Current Version</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Make</t>
-  </si>
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>First Email</t>
+    <t>Course</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>VM</t>
+  </si>
+  <si>
+    <t>Lab</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
   <si>
     <t>Second Email</t>
@@ -49,42 +46,56 @@
     <t>jake.p.burgess@gmail.com</t>
   </si>
   <si>
-    <t>Laptop</t>
-  </si>
-  <si>
-    <t>Lenovo</t>
-  </si>
-  <si>
-    <t>X1 Carbon</t>
-  </si>
-  <si>
-    <t>James Brown</t>
-  </si>
-  <si>
-    <t>Desktop</t>
-  </si>
-  <si>
-    <t>M910 Tiny</t>
-  </si>
-  <si>
-    <t>Mark Smith</t>
-  </si>
-  <si>
-    <t>Dell</t>
-  </si>
-  <si>
-    <t>Dell Optiplex 9020</t>
+    <t>SCC110</t>
+  </si>
+  <si>
+    <t>Matlab - Python - SAS</t>
+  </si>
+  <si>
+    <t>Didn't</t>
+  </si>
+  <si>
+    <t>B70</t>
+  </si>
+  <si>
+    <t>Adrian Tucker</t>
+  </si>
+  <si>
+    <t>a.tucker@lancaster.ac.uk</t>
+  </si>
+  <si>
+    <t>SCC120</t>
+  </si>
+  <si>
+    <t>SAS - Matlab - Eclipse</t>
+  </si>
+  <si>
+    <t>Did</t>
+  </si>
+  <si>
+    <t>John Thompson</t>
+  </si>
+  <si>
+    <t>j.burgess@lancaster.ac.uk</t>
+  </si>
+  <si>
+    <t>SCC130</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>B74</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt formatCode="yyyy\-mm\-dd" numFmtId="164"/>
-    <numFmt formatCode="yyyy-mm-dd" numFmtId="165"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -106,6 +117,14 @@
       <color theme="10"/>
       <sz val="11"/>
       <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <i val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -130,12 +149,13 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -446,24 +466,23 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="1" min="1" width="18.7109375"/>
     <col bestFit="1" customWidth="1" max="2" min="2" width="24.140625"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" width="14.42578125"/>
-    <col customWidth="1" max="5" min="5" width="12.140625"/>
+    <col customWidth="1" max="4" min="4" width="30.28515625"/>
+    <col customWidth="1" max="6" min="5" width="12.140625"/>
     <col customWidth="1" max="7" min="7" width="16.42578125"/>
     <col customWidth="1" max="8" min="8" width="23.5703125"/>
-    <col customWidth="1" max="9" min="9" width="13.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -488,96 +507,78 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="5" t="n">
+        <v>43677</v>
+      </c>
+      <c r="H2" s="5" t="n"/>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="n">
-        <v>12000</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1607</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>43620</v>
-      </c>
-      <c r="I2" s="3" t="n">
-        <v>43562</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="n">
-        <v>12005</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1709</v>
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="5" t="n">
+        <v>43677</v>
+      </c>
+      <c r="H3" s="5" t="n"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="3" t="n">
-        <v>43620</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>43562</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="n">
-        <v>13453</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1703</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
       <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="3" t="n">
-        <v>43620</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>43562</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>43677</v>
+      </c>
+      <c r="H4" s="5" t="n"/>
     </row>
   </sheetData>
   <hyperlinks>
